--- a/fin_statements_analysis/fin_statements_analysis_rus.xlsx
+++ b/fin_statements_analysis/fin_statements_analysis_rus.xlsx
@@ -36,7 +36,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -51,6 +51,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF99"/>
       </patternFill>
     </fill>
   </fills>
@@ -87,7 +92,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -955,13 +960,13 @@
     </row>
     <row r="10">
       <c r="F10" s="9" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" t="inlineStr">
         <is>
-          <t>Кредитование связано с повышенным риском.</t>
+          <t>Кредитование требует взвешенного подхода.</t>
         </is>
       </c>
     </row>
